--- a/气象/气温颜色.xlsx
+++ b/气象/气温颜色.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A9421B-8453-4703-B59B-733DEAA2675B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FC3132-C480-40A4-8341-8656E1907B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F39AAB59-546E-453B-99D4-F4E8F2388CF9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{F39AAB59-546E-453B-99D4-F4E8F2388CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="渐变色" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="76">
   <si>
     <t>249,92,164</t>
   </si>
@@ -281,108 +281,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[272,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[267,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[262,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[257,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[252,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[247,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[242,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[237,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[232,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[227,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[222,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[217,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[212,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[207,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[202,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[274,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[279,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[284,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[289,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[294,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[299,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[304,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[309,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[314,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[319,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[324,[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>[[</t>
+  </si>
+  <si>
+    <t>,[</t>
+  </si>
+  <si>
+    <t>[</t>
   </si>
 </sst>
 </file>
@@ -454,7 +359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,6 +383,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51A6BCF-4E21-4F18-8E61-CFE627055BDA}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -1206,744 +1117,1049 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D665CAA-C18E-4815-A9FE-2BA2EAE7CC94}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.59765625" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="7.59765625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" style="5" customWidth="1"/>
     <col min="3" max="3" width="7.59765625" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="3">
+        <v>202.9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="6">
         <v>255255255</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1">
         <v>-71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="3">
+        <v>203</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="6">
         <v>253201225</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1">
         <v>-70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="3">
+        <v>207.9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="6">
         <v>253201225</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1">
         <v>-66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="3">
+        <v>208</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="6">
         <v>251146194</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1">
         <v>-65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="3">
+        <v>212.9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="6">
         <v>251146194</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1">
         <v>-61</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="3">
+        <v>213</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="3">
+        <v>217.9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="3">
+        <v>218</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="3">
+        <v>222.9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="3">
+        <v>223</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="3">
+        <v>227.9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="3">
+        <v>228</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="3">
+        <v>232.9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="3">
+        <v>233</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="3">
+        <v>237.9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="3">
+        <v>238</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="3">
+        <v>242.9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="3">
+        <v>243</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="3">
+        <v>247.9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="3">
+        <v>248</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="3">
+        <v>252.9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="3">
+        <v>253</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="3">
+        <v>257.89999999999998</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="3">
+        <v>258</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="3">
+        <v>262.89999999999998</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="3">
+        <v>263</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="3">
+        <v>267.89999999999998</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="1">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="3">
+        <v>268</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="4">
+        <v>72149239</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="3">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="4">
+        <v>72149239</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="3">
+        <v>273</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="4">
+        <v>76201240</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="3">
+        <v>273.10000000000002</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="4">
+        <v>246254219</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="3">
+        <v>278</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="4">
+        <v>246254219</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="3">
+        <v>278.10000000000002</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="4">
+        <v>230211163</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="3">
+        <v>283</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="4">
+        <v>230211163</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="3">
+        <v>283.10000000000002</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="4">
+        <v>216209116</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="3">
+        <v>288</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="4">
+        <v>216209116</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="3">
+        <v>288.10000000000002</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="3">
+        <v>293</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="3">
+        <v>293.10000000000002</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="3">
+        <v>298</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="3">
+        <v>298.10000000000002</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="3">
+        <v>303</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="3">
+        <v>303.10000000000002</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="3">
+        <v>308</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="3">
+        <v>308.10000000000002</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="3">
+        <v>313</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="3">
+        <v>313.10000000000002</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A50" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="3">
+        <v>318</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50">
         <v>45</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="1">
-        <v>-56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A51" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="3">
+        <v>318.10000000000002</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51">
         <v>46</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="1">
-        <v>-55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1">
-        <v>-51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="1">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="1">
-        <v>-45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="1">
-        <v>-41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="1">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="1">
-        <v>-36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A52" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="3">
+        <v>323</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52">
         <v>50</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1">
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="1">
-        <v>-31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="1">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="1">
-        <v>-26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="1">
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="1">
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="1">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="1">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="1">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="1">
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="1">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="4">
-        <v>72149239</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="4">
-        <v>72149239</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="4">
-        <v>76201240</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="4">
-        <v>246254219</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="4">
-        <v>246254219</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="4">
-        <v>230211163</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="4">
-        <v>230211163</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="4">
-        <v>216209116</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="4">
-        <v>216209116</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A53" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="3">
+        <v>323.10000000000002</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48">
+      <c r="E53" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53">
+      <c r="G53">
         <v>51</v>
       </c>
     </row>
